--- a/Device_Management.xlsx
+++ b/Device_Management.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshs1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C98A86-54D8-4417-B79F-8823A3D68784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90D662-35EF-4E4D-A8CE-013C694C796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOARDS" sheetId="1" r:id="rId1"/>
     <sheet name="BOARD STATUS" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Product</t>
   </si>
@@ -177,6 +178,39 @@
   </si>
   <si>
     <t>FAB</t>
+  </si>
+  <si>
+    <t>Versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug </t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>CS current</t>
+  </si>
+  <si>
+    <t>Test Mode entry</t>
+  </si>
+  <si>
+    <t>STAUTS</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>REEEVIEEW</t>
+  </si>
+  <si>
+    <t>NOT CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG </t>
+  </si>
+  <si>
+    <t>DEVICE</t>
   </si>
 </sst>
 </file>
@@ -186,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +237,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -264,6 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -1187,4 +1230,117 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97295B8-ED2C-4B50-ACD4-5A0C8C58F4DB}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4832</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4832</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Device_Management.xlsx
+++ b/Device_Management.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshs1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90D662-35EF-4E4D-A8CE-013C694C796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A15BCCE-59BA-4FC4-8EBC-41E93AC50EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOARDS" sheetId="1" r:id="rId1"/>
     <sheet name="BOARD STATUS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="BUG LIST" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>Product</t>
   </si>
@@ -180,37 +180,34 @@
     <t>FAB</t>
   </si>
   <si>
-    <t>Versions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug </t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>CS current</t>
   </si>
   <si>
     <t>Test Mode entry</t>
   </si>
   <si>
-    <t>STAUTS</t>
-  </si>
-  <si>
-    <t>CLEAR</t>
-  </si>
-  <si>
-    <t>REEEVIEEW</t>
-  </si>
-  <si>
-    <t>NOT CHECKED</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUG </t>
   </si>
   <si>
     <t>DEVICE</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>NOT VERIFIED</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -1234,110 +1231,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97295B8-ED2C-4B50-ACD4-5A0C8C58F4DB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
         <v>4832</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
         <v>4832</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
         <v>4832</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
         <v>4832</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
